--- a/08_MiscDocs/UserStories/UserStories.xlsx
+++ b/08_MiscDocs/UserStories/UserStories.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\08_MiscDocs\EffortEstimation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9874E1A-357E-4539-AC75-4DA88F866780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66051B87-05CE-403D-98BC-07DCBCB1C8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3B46546B-928E-4541-8367-A163508963AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B46546B-928E-4541-8367-A163508963AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>SW01</t>
   </si>
@@ -50,6 +50,54 @@
   </si>
   <si>
     <t>Effort Est.</t>
+  </si>
+  <si>
+    <t>SW02</t>
+  </si>
+  <si>
+    <t>As a user I want to see entered homework and events highlighted by a shading of the color of the lesson in the school timetable, and events by a having them be a different color in order to not forget about them.</t>
+  </si>
+  <si>
+    <t>SW03</t>
+  </si>
+  <si>
+    <t>SW04</t>
+  </si>
+  <si>
+    <t>SW05</t>
+  </si>
+  <si>
+    <t>SW06</t>
+  </si>
+  <si>
+    <t>SW07</t>
+  </si>
+  <si>
+    <t>SW08</t>
+  </si>
+  <si>
+    <t>SW09</t>
+  </si>
+  <si>
+    <t>As a user I want to have an easy usable app for my mobile phone in order to use it whenever I want and wherever I am and to have an easy and fast access to it.</t>
+  </si>
+  <si>
+    <t>As a user I want to use only one app for my homeworks, for my timetable and for my private plans instead of using 2 or more apps in order to be much faster and easier well informed about the next days weeks and months.</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to switch in the app through different views of the timetables to weeks or months in order to have an overview over my activity this week including school stuff or private stuff, and the project spanning weeks in one app.</t>
+  </si>
+  <si>
+    <t>As a user I also want to get regular reminders of the homework, the private plans and the upcoming tests for which i have to do something in the next days, and also the canceled hours or special school events in order to stay up to date and plan ahead the next week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I want to share specific entries of my timetable with my classmates in order to make general information about the entry available to all. </t>
+  </si>
+  <si>
+    <t>As a user I want to be able to edit homework entries if they aren't right or incomplete in order to correct wrong informations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a school administrator i want to enter the WebUntis server coordinates in order to connect the classes and students to the Schoolplaner System.  </t>
   </si>
 </sst>
 </file>
@@ -79,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -280,31 +328,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,24 +409,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -647,324 +741,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2FD37-3AD0-47D0-A86A-F4C9974897A3}">
-  <dimension ref="C2:O20"/>
+  <dimension ref="C2:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="1.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="1.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="1.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="1.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+    <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="11" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="3:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="17"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="15"/>
+    <row r="5" spans="3:15" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="15"/>
+    <row r="6" spans="3:15" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="15"/>
+    <row r="7" spans="3:15" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="15"/>
+    <row r="8" spans="3:15" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="15"/>
+    <row r="9" spans="3:15" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="15"/>
+    <row r="10" spans="3:15" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="15"/>
+    <row r="11" spans="3:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="15"/>
-    </row>
-    <row r="13" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="15"/>
-    </row>
-    <row r="14" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="15"/>
-    </row>
-    <row r="17" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="15"/>
-    </row>
-    <row r="18" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="16"/>
+    <row r="12" spans="3:15" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="D3:D20"/>
-    <mergeCell ref="N3:N20"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
+  <mergeCells count="12">
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="E12:M12"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="E9:M9"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
     <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08_MiscDocs/UserStories/UserStories.xlsx
+++ b/08_MiscDocs/UserStories/UserStories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\08_MiscDocs\EffortEstimation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\08_MiscDocs\UserStories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9874E1A-357E-4539-AC75-4DA88F866780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A019FCF-C4E3-482B-9F6A-A4D852BDB27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3B46546B-928E-4541-8367-A163508963AF}"/>
   </bookViews>
@@ -79,7 +79,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -280,31 +280,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,24 +370,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,7 +696,7 @@
   <dimension ref="C2:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,287 +710,291 @@
   <sheetData>
     <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="11" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="17"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="15"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="15"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="15"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="15"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="15"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="15"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="15"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="15"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="15"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="3"/>
     </row>
     <row r="11" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="15"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="15"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="3"/>
     </row>
     <row r="13" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="15"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="3"/>
     </row>
     <row r="14" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="15"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="3"/>
     </row>
     <row r="15" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="15"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="3"/>
     </row>
     <row r="16" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="15"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="3"/>
     </row>
     <row r="17" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="15"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="3"/>
     </row>
     <row r="18" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="15"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="15"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="3"/>
     </row>
     <row r="20" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="16"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="16"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E3:M3"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
     <mergeCell ref="E20:M20"/>
     <mergeCell ref="D3:D20"/>
     <mergeCell ref="N3:N20"/>
@@ -961,10 +1011,6 @@
     <mergeCell ref="E12:M12"/>
     <mergeCell ref="E13:M13"/>
     <mergeCell ref="E4:M4"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08_MiscDocs/UserStories/UserStories.xlsx
+++ b/08_MiscDocs/UserStories/UserStories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\08_MiscDocs\UserStories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A019FCF-C4E3-482B-9F6A-A4D852BDB27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C789C-E772-4DEA-B700-616E291187AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3B46546B-928E-4541-8367-A163508963AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>SW01</t>
   </si>
@@ -50,6 +50,54 @@
   </si>
   <si>
     <t>Effort Est.</t>
+  </si>
+  <si>
+    <t>SW02</t>
+  </si>
+  <si>
+    <t>As a user I want to see entered homework and events highlighted by a shading of the color of the lesson in the school timetable, and events by a having them be a different color in order to not forget about them.</t>
+  </si>
+  <si>
+    <t>SW03</t>
+  </si>
+  <si>
+    <t>SW04</t>
+  </si>
+  <si>
+    <t>SW05</t>
+  </si>
+  <si>
+    <t>SW06</t>
+  </si>
+  <si>
+    <t>SW07</t>
+  </si>
+  <si>
+    <t>SW08</t>
+  </si>
+  <si>
+    <t>SW09</t>
+  </si>
+  <si>
+    <t>As a user I want to have an easy usable app for my mobile phone in order to use it whenever I want and wherever I am and to have an easy and fast access to it.</t>
+  </si>
+  <si>
+    <t>As a user I want to use only one app for my homeworks, for my timetable and for my private plans instead of using 2 or more apps in order to be much faster and easier well informed about the next days weeks and months.</t>
+  </si>
+  <si>
+    <t>As a user I want to be able to switch in the app through different views of the timetables to weeks or months in order to have an overview over my activity this week including school stuff or private stuff, and the project spanning weeks in one app.</t>
+  </si>
+  <si>
+    <t>As a user I also want to get regular reminders of the homework, the private plans and the upcoming tests for which i have to do something in the next days, and also the canceled hours or special school events in order to stay up to date and plan ahead the next week.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I want to share specific entries of my timetable with my classmates in order to make general information about the entry available to all. </t>
+  </si>
+  <si>
+    <t>As a user I want to be able to edit homework entries if they aren't right or incomplete in order to correct wrong informations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a school administrator i want to enter the WebUntis server coordinates in order to connect the classes and students to the Schoolplaner System.  </t>
   </si>
 </sst>
 </file>
@@ -334,14 +382,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,6 +409,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -360,24 +426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2FD37-3AD0-47D0-A86A-F4C9974897A3}">
-  <dimension ref="C2:O20"/>
+  <dimension ref="C2:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +752,7 @@
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="1.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
     <col min="14" max="14" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,19 +761,19 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="9"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="12"/>
       <c r="O3" s="2" t="s">
         <v>4</v>
       </c>
@@ -734,283 +782,187 @@
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="10"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="10"/>
+    <row r="5" spans="3:15" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="10"/>
+    <row r="6" spans="3:15" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
+    <row r="7" spans="3:15" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="10"/>
+    <row r="8" spans="3:15" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="10"/>
+    <row r="9" spans="3:15" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
+    <row r="10" spans="3:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
+    <row r="11" spans="3:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="4"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="4"/>
+    <row r="12" spans="3:15" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="12">
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="E12:M12"/>
+    <mergeCell ref="E8:M8"/>
+    <mergeCell ref="E9:M9"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="E4:M4"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="D3:D20"/>
-    <mergeCell ref="N3:N20"/>
-    <mergeCell ref="E14:M14"/>
-    <mergeCell ref="E15:M15"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E17:M17"/>
-    <mergeCell ref="E18:M18"/>
-    <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E8:M8"/>
-    <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="E12:M12"/>
-    <mergeCell ref="E13:M13"/>
-    <mergeCell ref="E4:M4"/>
+    <mergeCell ref="D3:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08_MiscDocs/UserStories/UserStories.xlsx
+++ b/08_MiscDocs/UserStories/UserStories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\08_MiscDocs\UserStories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949C789C-E772-4DEA-B700-616E291187AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFFAF4D-B1E5-4AC4-950E-4E88C10524F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3B46546B-928E-4541-8367-A163508963AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SW01</t>
   </si>
@@ -98,13 +98,16 @@
   </si>
   <si>
     <t xml:space="preserve">As a school administrator i want to enter the WebUntis server coordinates in order to connect the classes and students to the Schoolplaner System.  </t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,8 +115,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +135,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -365,11 +380,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -382,6 +425,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -391,41 +470,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2FD37-3AD0-47D0-A86A-F4C9974897A3}">
-  <dimension ref="C2:O12"/>
+  <dimension ref="C2:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:M12"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,203 +809,217 @@
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="13" max="13" width="10.5703125" customWidth="1"/>
     <col min="14" max="14" width="1.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="2" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="3:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="5"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="3:15" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="3"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="3:15" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="3"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="3:15" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="3"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="3:15" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="3"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="3:15" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="3"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="3:15" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="3"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="3:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="3"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="3:15" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:16" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="4"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="D3:D12"/>
     <mergeCell ref="N3:N12"/>
     <mergeCell ref="E12:M12"/>
     <mergeCell ref="E8:M8"/>
@@ -962,7 +1031,6 @@
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="E6:M6"/>
     <mergeCell ref="E7:M7"/>
-    <mergeCell ref="D3:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/08_MiscDocs/UserStories/UserStories.xlsx
+++ b/08_MiscDocs/UserStories/UserStories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\08_MiscDocs\UserStories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFFAF4D-B1E5-4AC4-950E-4E88C10524F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DC2388-D925-4268-8C0E-8319C43348B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3B46546B-928E-4541-8367-A163508963AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>SW01</t>
   </si>
@@ -71,18 +71,6 @@
   </si>
   <si>
     <t>SW07</t>
-  </si>
-  <si>
-    <t>SW08</t>
-  </si>
-  <si>
-    <t>SW09</t>
-  </si>
-  <si>
-    <t>As a user I want to have an easy usable app for my mobile phone in order to use it whenever I want and wherever I am and to have an easy and fast access to it.</t>
-  </si>
-  <si>
-    <t>As a user I want to use only one app for my homeworks, for my timetable and for my private plans instead of using 2 or more apps in order to be much faster and easier well informed about the next days weeks and months.</t>
   </si>
   <si>
     <t>As a user I want to be able to switch in the app through different views of the timetables to weeks or months in order to have an overview over my activity this week including school stuff or private stuff, and the project spanning weeks in one app.</t>
@@ -107,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +105,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -412,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -425,6 +419,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,16 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2FD37-3AD0-47D0-A86A-F4C9974897A3}">
-  <dimension ref="C2:P12"/>
+  <dimension ref="C2:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,21 +808,21 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="21" t="s">
-        <v>21</v>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>4</v>
@@ -841,197 +832,184 @@
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="5"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="3:16" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="3"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="23">
+        <v>3</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="3:16" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="3"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="23">
+        <v>2</v>
+      </c>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="3:16" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="3"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="23">
+        <v>4</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="3:16" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="3"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="23">
+        <v>5</v>
+      </c>
+      <c r="P8" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="3:16" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="3"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="23">
+        <v>6</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="3:16" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="3:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="3:16" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="4"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="23">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="E12:M12"/>
+  <mergeCells count="10">
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="N3:N10"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="E6:M6"/>
+    <mergeCell ref="E7:M7"/>
     <mergeCell ref="E8:M8"/>
     <mergeCell ref="E9:M9"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="E11:M11"/>
     <mergeCell ref="E4:M4"/>
     <mergeCell ref="E3:M3"/>
     <mergeCell ref="E5:M5"/>
-    <mergeCell ref="E6:M6"/>
-    <mergeCell ref="E7:M7"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/08_MiscDocs/UserStories/UserStories.xlsx
+++ b/08_MiscDocs/UserStories/UserStories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\08_MiscDocs\UserStories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DC2388-D925-4268-8C0E-8319C43348B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24629F37-A3FC-4143-8A0D-545A93801B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3B46546B-928E-4541-8367-A163508963AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>SW01</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Priority</t>
+  </si>
+  <si>
+    <t>Summe:</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +138,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -406,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -425,6 +434,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2FD37-3AD0-47D0-A86A-F4C9974897A3}">
-  <dimension ref="C2:P10"/>
+  <dimension ref="C2:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,19 +820,19 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="20" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="8"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="6" t="s">
         <v>17</v>
       </c>
@@ -832,19 +844,19 @@
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="9"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="7">
         <v>1</v>
       </c>
@@ -856,20 +868,20 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="23">
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="8">
         <v>3</v>
       </c>
       <c r="P5" s="3">
@@ -880,20 +892,20 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="23">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="8">
         <v>2</v>
       </c>
       <c r="P6" s="3">
@@ -904,20 +916,20 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="23">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="8">
         <v>4</v>
       </c>
       <c r="P7" s="3">
@@ -928,20 +940,20 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="23">
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="8">
         <v>5</v>
       </c>
       <c r="P8" s="3">
@@ -952,20 +964,20 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="23">
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="8">
         <v>6</v>
       </c>
       <c r="P9" s="3">
@@ -976,24 +988,33 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="23">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="8">
         <v>5</v>
       </c>
       <c r="P10" s="4">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="24">
+        <f>SUM(P4:P10)</f>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/08_MiscDocs/UserStories/UserStories.xlsx
+++ b/08_MiscDocs/UserStories/UserStories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\08_MiscDocs\UserStories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24629F37-A3FC-4143-8A0D-545A93801B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4254246D-19B0-4AA9-9092-0531229C4E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3B46546B-928E-4541-8367-A163508963AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>SW01</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>Summe:</t>
+  </si>
+  <si>
+    <t>SW1 Planung:</t>
+  </si>
+  <si>
+    <t>Heute: Weitergearbeitet an Calenderview, Fake restAPI erstellt, Planung durchdacht, Datenbankerstellung -&gt; ca. 9 H</t>
+  </si>
+  <si>
+    <t>In der nächsten Zeit Storiepoint 1 fertigstellen</t>
   </si>
 </sst>
 </file>
@@ -437,6 +446,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,9 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2FD37-3AD0-47D0-A86A-F4C9974897A3}">
-  <dimension ref="C2:P11"/>
+  <dimension ref="C2:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,19 +829,19 @@
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="21" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="9"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="10"/>
       <c r="O3" s="6" t="s">
         <v>17</v>
       </c>
@@ -844,19 +853,19 @@
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="10"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="7">
         <v>1</v>
       </c>
@@ -868,19 +877,19 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="10"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="8">
         <v>3</v>
       </c>
@@ -892,19 +901,19 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="10"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="8">
         <v>2</v>
       </c>
@@ -916,19 +925,19 @@
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="10"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="8">
         <v>4</v>
       </c>
@@ -940,19 +949,19 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="10"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="8">
         <v>5</v>
       </c>
@@ -964,19 +973,19 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="10"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="8">
         <v>6</v>
       </c>
@@ -988,19 +997,19 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="11"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="8">
         <v>5</v>
       </c>
@@ -1009,12 +1018,25 @@
       </c>
     </row>
     <row r="11" spans="3:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O11" s="24" t="s">
+      <c r="O11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="24">
+      <c r="P11" s="9">
         <f>SUM(P4:P10)</f>
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/08_MiscDocs/UserStories/UserStories.xlsx
+++ b/08_MiscDocs/UserStories/UserStories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindi\.aSchule\3CHIF\SYP\Projekt_ADL\08_MiscDocs\UserStories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4254246D-19B0-4AA9-9092-0531229C4E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DC4BFC-37CF-48E1-AC93-DD0D077197B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3B46546B-928E-4541-8367-A163508963AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>SW01</t>
   </si>
@@ -101,6 +101,21 @@
   </si>
   <si>
     <t>In der nächsten Zeit Storiepoint 1 fertigstellen</t>
+  </si>
+  <si>
+    <t>SW1 Planung: Weitergearbeitet an Calendar, schwierigkeiten bei Erstellung aufgrund der SDK</t>
+  </si>
+  <si>
+    <t>SW1 Planung: Fortschritte am Calendar, Wochen und Monatsansicht</t>
+  </si>
+  <si>
+    <t>SW1 Planung: Menüleiste fertiggestellt</t>
+  </si>
+  <si>
+    <t>SW1 Planung: ToDos PopUp erstellt</t>
+  </si>
+  <si>
+    <t>SW1 Planung: ToDos hinzufügen verfügbar</t>
   </si>
 </sst>
 </file>
@@ -128,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +168,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="21">
     <border>
@@ -424,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -476,15 +509,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,6 +517,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E2FD37-3AD0-47D0-A86A-F4C9974897A3}">
-  <dimension ref="C2:P15"/>
+  <dimension ref="C2:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,17 +890,17 @@
         <v>2</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
       <c r="N3" s="10"/>
       <c r="O3" s="6" t="s">
         <v>17</v>
@@ -854,17 +914,17 @@
         <v>0</v>
       </c>
       <c r="D4" s="11"/>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
       <c r="N4" s="11"/>
       <c r="O4" s="7">
         <v>1</v>
@@ -878,17 +938,17 @@
         <v>5</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
       <c r="N5" s="11"/>
       <c r="O5" s="8">
         <v>3</v>
@@ -902,17 +962,17 @@
         <v>7</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="11"/>
       <c r="O6" s="8">
         <v>2</v>
@@ -926,17 +986,17 @@
         <v>8</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="11"/>
       <c r="O7" s="8">
         <v>4</v>
@@ -1037,6 +1097,31 @@
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
